--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,78 +40,90 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>low</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -121,94 +133,100 @@
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>thank</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>great</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>important</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -566,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -706,16 +724,16 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="K4">
-        <v>0.95</v>
-      </c>
-      <c r="L4">
-        <v>114</v>
-      </c>
       <c r="M4">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,16 +774,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.868421052631579</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8561643835616438</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C7">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D7">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,10 +906,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,31 +921,31 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.9302325581395349</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="L8">
+        <v>343</v>
+      </c>
+      <c r="M8">
+        <v>343</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>40</v>
-      </c>
-      <c r="M8">
-        <v>40</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.717948717948718</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.9112271540469974</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L9">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.725</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,31 +1021,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>12</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10">
-        <v>0.8943661971830986</v>
-      </c>
-      <c r="L10">
-        <v>127</v>
-      </c>
-      <c r="M10">
-        <v>127</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6949152542372882</v>
+        <v>0.6918604651162791</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8928571428571429</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6923076923076923</v>
+        <v>0.6878306878306878</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8773584905660378</v>
+        <v>0.8828125</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,16 +1174,16 @@
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6782945736434108</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14">
-        <v>350</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>350</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>0.8625</v>
@@ -1235,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6296296296296297</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="C15">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D15">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5973154362416108</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C16">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.851063829787234</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5388888888888889</v>
+        <v>0.575</v>
       </c>
       <c r="C17">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D17">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1353,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.8448275862068966</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1385,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.509090909090909</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1403,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.8414634146341463</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1427,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1435,37 +1453,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.509090909090909</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>28</v>
       </c>
-      <c r="D19">
-        <v>28</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>27</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.8253968253968254</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1477,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1485,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4821428571428572</v>
+        <v>0.48</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1503,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>0.7916666666666666</v>
@@ -1535,7 +1553,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4666666666666667</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C21">
         <v>35</v>
@@ -1553,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.7714285714285715</v>
+        <v>0.775</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1577,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1585,13 +1603,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3666666666666666</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1603,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.7588235294117647</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L22">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1627,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1635,13 +1653,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2817460317460317</v>
+        <v>0.3373015873015873</v>
       </c>
       <c r="C23">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D23">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1653,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.7435897435897436</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1677,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1706,59 +1724,107 @@
         <v>313</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="L24">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="C25">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>269</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25">
+        <v>0.7312925170068028</v>
+      </c>
+      <c r="L25">
+        <v>215</v>
+      </c>
+      <c r="M25">
+        <v>216</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.01546890106348695</v>
+      </c>
+      <c r="C26">
+        <v>48</v>
+      </c>
+      <c r="D26">
         <v>52</v>
       </c>
-      <c r="K24">
-        <v>0.74</v>
-      </c>
-      <c r="L24">
-        <v>37</v>
-      </c>
-      <c r="M24">
-        <v>37</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>0.735593220338983</v>
-      </c>
-      <c r="L25">
-        <v>217</v>
-      </c>
-      <c r="M25">
-        <v>217</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="E26">
+        <v>0.08</v>
+      </c>
+      <c r="F26">
+        <v>0.92</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3055</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K26">
         <v>0.7254901960784313</v>
@@ -1783,17 +1849,41 @@
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.005053449951409135</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>46</v>
+      </c>
+      <c r="E27">
+        <v>0.43</v>
+      </c>
+      <c r="F27">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>5119</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.725</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1805,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.7238493723849372</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L28">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="M28">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1831,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.6966292134831461</v>
+        <v>0.7</v>
       </c>
       <c r="L29">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1857,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.6808510638297872</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L30">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="M30">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1883,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.6571428571428571</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1909,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.6307692307692307</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1935,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.5342465753424658</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1961,21 +2051,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.421875</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1987,21 +2077,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.3846153846153846</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2013,33 +2103,111 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.02585487906588824</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="L36">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>28</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>31</v>
       </c>
-      <c r="M36">
-        <v>32</v>
-      </c>
-      <c r="N36">
-        <v>0.97</v>
-      </c>
-      <c r="O36">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>1168</v>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37">
+        <v>0.46875</v>
+      </c>
+      <c r="L37">
+        <v>30</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38">
+        <v>0.03341687552213868</v>
+      </c>
+      <c r="L38">
+        <v>40</v>
+      </c>
+      <c r="M38">
+        <v>43</v>
+      </c>
+      <c r="N38">
+        <v>0.93</v>
+      </c>
+      <c r="O38">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39">
+        <v>0.006838294448913918</v>
+      </c>
+      <c r="L39">
+        <v>34</v>
+      </c>
+      <c r="M39">
+        <v>58</v>
+      </c>
+      <c r="N39">
+        <v>0.59</v>
+      </c>
+      <c r="O39">
+        <v>0.41</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>4938</v>
       </c>
     </row>
   </sheetData>
